--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718185C-8A19-44B6-8CC0-194A6F19FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3BC253-1E4C-4EF9-A57C-89745C84013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
     <sheet name="10th January 2022" sheetId="1" r:id="rId2"/>
+    <sheet name="11th January 2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -350,6 +351,18 @@
   </si>
   <si>
     <t>QOL - Enable Disassemble All Items</t>
+  </si>
+  <si>
+    <t>11th January 2022</t>
+  </si>
+  <si>
+    <t>QOL - 01 . EFT Style Weapon Re-position</t>
+  </si>
+  <si>
+    <t>QOL - Suppresor Reworked 75 - Standard Anomaly 1.05.6</t>
+  </si>
+  <si>
+    <t>QOL - Decreased AI Hearing Distance (Bushes)</t>
   </si>
 </sst>
 </file>
@@ -879,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D4407C-A8D4-46E9-8DB5-B9DF6FC7832C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -894,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD353995-0ADD-4861-8866-13013B5620DB}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection sqref="A1:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,4 +1444,557 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE2E16-5004-47B0-906D-4F440065C326}">
+  <dimension ref="A1:A108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3BC253-1E4C-4EF9-A57C-89745C84013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067CCA6-F9BE-4CBB-A652-CB2E32F78A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="4" activeTab="4" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
     <sheet name="10th January 2022" sheetId="1" r:id="rId2"/>
     <sheet name="11th January 2022" sheetId="3" r:id="rId3"/>
+    <sheet name="13th January 2022-v1" sheetId="4" r:id="rId4"/>
+    <sheet name="13th January 2022-v2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -363,6 +365,45 @@
   </si>
   <si>
     <t>QOL - Decreased AI Hearing Distance (Bushes)</t>
+  </si>
+  <si>
+    <t>13th January 2022</t>
+  </si>
+  <si>
+    <t>QOL - Weapon Sway 0.5</t>
+  </si>
+  <si>
+    <t>QOL - Quest Items Droppable RC 18</t>
+  </si>
+  <si>
+    <t>QOL - Reworked Oufit Attachments 1.3</t>
+  </si>
+  <si>
+    <t>QOL - Suppressor Reworked 75 - Standard Anomaly 1.05.6</t>
+  </si>
+  <si>
+    <t>QOL - 01 Dynamic_NPC_Armor_Visuals NPCs_loot_outfits</t>
+  </si>
+  <si>
+    <t>Mod "Load Order" version 1</t>
+  </si>
+  <si>
+    <t>Mod "Load Order" version 2</t>
+  </si>
+  <si>
+    <t>QOL - Suppressor Reworked 50 - Standard Anomaly 1.05.6</t>
+  </si>
+  <si>
+    <t>QOL - NicerFlashlights Addon Taclight 1.6</t>
+  </si>
+  <si>
+    <t>QOL - Highlight New Items</t>
+  </si>
+  <si>
+    <t>QOL - Food Drugs Drinks Visual Accuracy Item Counts</t>
+  </si>
+  <si>
+    <t>QOL - NVR EFT Style Version Old DX10-9-8</t>
   </si>
 </sst>
 </file>
@@ -907,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD353995-0ADD-4861-8866-13013B5620DB}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection sqref="A1:A106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE2E16-5004-47B0-906D-4F440065C326}">
   <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:A108"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,4 +2038,1154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB539C3-AD53-4345-BDDB-2FAFF6CECCC5}">
+  <dimension ref="A1:A111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9EC281-FAAA-4EB7-AFDB-ECA92B170E37}">
+  <dimension ref="A1:A115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067CCA6-F9BE-4CBB-A652-CB2E32F78A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0BA62-12C4-4508-8323-875D09BE28FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="4" activeTab="4" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="5" activeTab="5" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="11th January 2022" sheetId="3" r:id="rId3"/>
     <sheet name="13th January 2022-v1" sheetId="4" r:id="rId4"/>
     <sheet name="13th January 2022-v2" sheetId="5" r:id="rId5"/>
+    <sheet name="16th January 2022-v1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="144">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -404,6 +405,72 @@
   </si>
   <si>
     <t>QOL - NVR EFT Style Version Old DX10-9-8</t>
+  </si>
+  <si>
+    <t>16th January 2022</t>
+  </si>
+  <si>
+    <t>Gamepaly - 00. Main EFT reposition</t>
+  </si>
+  <si>
+    <t>QOL - AdjustableScope 1.6</t>
+  </si>
+  <si>
+    <t>Weapons Sounds - Fire Mode Selector Sound</t>
+  </si>
+  <si>
+    <t>Weapons Sounds - Fire Mode Selector Sound - JSRS</t>
+  </si>
+  <si>
+    <t>Gameplay - RPGlite Skills Systems 1.4.2.3</t>
+  </si>
+  <si>
+    <t>QOL - NVR EFT Style Version Old DX10-9-8 (Clean-ZM Modification)</t>
+  </si>
+  <si>
+    <t>Misc Sounds - EFTNOD</t>
+  </si>
+  <si>
+    <t>HUD - Collimator Sights Rework</t>
+  </si>
+  <si>
+    <t>HUD - Subtle Hit Direction Marker 1.1</t>
+  </si>
+  <si>
+    <t>QOL - Exo Missing Texture Fix</t>
+  </si>
+  <si>
+    <t>QOL - Reworked Outfit Attachments 1.3</t>
+  </si>
+  <si>
+    <t>HUD - OPT1. Groks New Masks Reflections Droplets 2.1.0</t>
+  </si>
+  <si>
+    <t>Weapons Sounds - Suppressed Shotgun Sound Rework JSRS</t>
+  </si>
+  <si>
+    <t>Gameplay - 02. EFT repos + Blindsides reanim (vanilla stats)</t>
+  </si>
+  <si>
+    <t>Gameplay - Blindsides RPL GBOOBS Patch</t>
+  </si>
+  <si>
+    <t>Gameplay - AWAR 0.97</t>
+  </si>
+  <si>
+    <t>Gameplay - 02. EFT repos + Blindsides reanim</t>
+  </si>
+  <si>
+    <t>Gameplay - 01. EFT repos + AWAR 0.97</t>
+  </si>
+  <si>
+    <t>Gameplay - Blindsides RPL 0.7</t>
+  </si>
+  <si>
+    <t>Animation - Lower Weapon Sprint Reworks</t>
+  </si>
+  <si>
+    <t>Gameplay - Blindsides RPL JSRS Patch 0.6</t>
   </si>
 </sst>
 </file>
@@ -2609,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9EC281-FAAA-4EB7-AFDB-ECA92B170E37}">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,4 +3255,664 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06579C7E-DE95-458B-9C83-9CD8B0FB8246}">
+  <dimension ref="A1:A130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0BA62-12C4-4508-8323-875D09BE28FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EEF19-EDDD-4CB2-BE69-921A007E4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="5" activeTab="5" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="6" activeTab="6" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="13th January 2022-v1" sheetId="4" r:id="rId4"/>
     <sheet name="13th January 2022-v2" sheetId="5" r:id="rId5"/>
     <sheet name="16th January 2022-v1" sheetId="6" r:id="rId6"/>
+    <sheet name="25th January 2022-v1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="155">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -471,6 +472,39 @@
   </si>
   <si>
     <t>Gameplay - Blindsides RPL JSRS Patch 0.6</t>
+  </si>
+  <si>
+    <t>25th January 2022</t>
+  </si>
+  <si>
+    <t>Gameplay - Grok's BOOBS 1.6.2</t>
+  </si>
+  <si>
+    <t>Gameplay - Grok's BOOBS Affects all NPCs 1.6.2</t>
+  </si>
+  <si>
+    <t>Gameplay - Groks BOOBS Shotgun fix 1.6.2</t>
+  </si>
+  <si>
+    <t>Gameplay - 02. EFT repos + Blindsides reanim (Vanilla Stats)</t>
+  </si>
+  <si>
+    <t>Gameplay - Souvlaki's FAL 2.0</t>
+  </si>
+  <si>
+    <t>Gameplay - Grok's BOOBS Blindside's Animation Patch 1.6.2</t>
+  </si>
+  <si>
+    <t>HUD - Nav's Mask Reworked</t>
+  </si>
+  <si>
+    <t>Textures - Reflections + Droplets Hotfix</t>
+  </si>
+  <si>
+    <t>Textures - T.H.A.P REV ANOMALY EDITION</t>
+  </si>
+  <si>
+    <t>Textures - T.H.A.P Rework 2.0</t>
   </si>
 </sst>
 </file>
@@ -3261,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06579C7E-DE95-458B-9C83-9CD8B0FB8246}">
   <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,4 +3949,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EC224-1742-4A03-A862-4BA8740921F0}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EEF19-EDDD-4CB2-BE69-921A007E4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C1B3F-3849-40F1-B2D5-729491E9A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="6" activeTab="6" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="7" activeTab="7" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="13th January 2022-v2" sheetId="5" r:id="rId5"/>
     <sheet name="16th January 2022-v1" sheetId="6" r:id="rId6"/>
     <sheet name="25th January 2022-v1" sheetId="7" r:id="rId7"/>
+    <sheet name="12th February 2022-v1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="156">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -505,6 +506,9 @@
   </si>
   <si>
     <t>Textures - T.H.A.P Rework 2.0</t>
+  </si>
+  <si>
+    <t>22th February 2022</t>
   </si>
 </sst>
 </file>
@@ -3955,8 +3959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EC224-1742-4A03-A862-4BA8740921F0}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,4 +4103,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0EFE6-F6C5-4D3A-98A5-B7E99D9930C9}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
+++ b/Mods Load Order/STALKER Anomaly 1.5.1 - Mods Load Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\STALKER-Anomaly---My-Mods-Collection\Mods Load Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C1B3F-3849-40F1-B2D5-729491E9A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B03929-F78D-4657-BF64-A3BBB3C1A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15585" firstSheet="7" activeTab="7" xr2:uid="{9B3995F9-12C5-4747-9014-E3FA0CC0DF07}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="13th January 2022-v2" sheetId="5" r:id="rId5"/>
     <sheet name="16th January 2022-v1" sheetId="6" r:id="rId6"/>
     <sheet name="25th January 2022-v1" sheetId="7" r:id="rId7"/>
-    <sheet name="12th February 2022-v1" sheetId="8" r:id="rId8"/>
+    <sheet name="21st February 2022-v1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="267">
   <si>
     <t>STALKER Anomaly 1.5.1</t>
   </si>
@@ -508,7 +508,340 @@
     <t>Textures - T.H.A.P Rework 2.0</t>
   </si>
   <si>
-    <t>22th February 2022</t>
+    <t>21st February 2022</t>
+  </si>
+  <si>
+    <t>Tools - MCM 1.6.2</t>
+  </si>
+  <si>
+    <t>Performance - Crowded Areas</t>
+  </si>
+  <si>
+    <t>Gameplay - 00. Main EFT Repos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons Sounds - JSRS P1. Main </t>
+  </si>
+  <si>
+    <t>Weapons Sounds - JSRS P2. Cracks + Impacts</t>
+  </si>
+  <si>
+    <t>Weapons Sounds - JSRS P3. New Tracers Patch</t>
+  </si>
+  <si>
+    <t>GBOOBS Core 1.6.9</t>
+  </si>
+  <si>
+    <t>GBOOBS Shotgun Fix 1.6.9</t>
+  </si>
+  <si>
+    <t>GBOOBS Affect all NPC 1.6.9</t>
+  </si>
+  <si>
+    <t>Blindsides RPL 0.7</t>
+  </si>
+  <si>
+    <t>Gameplay - 02. EFT Repos + Blindsides Reanim</t>
+  </si>
+  <si>
+    <t>GBOOBS Blindsides Reanim Patch 1.6.9</t>
+  </si>
+  <si>
+    <t>XM8R - Main</t>
+  </si>
+  <si>
+    <t>XM8 - Patch JSRS 3.6</t>
+  </si>
+  <si>
+    <t>Fire Mode Selector Sound</t>
+  </si>
+  <si>
+    <t>Fire Mode Selector Sound - JSRS</t>
+  </si>
+  <si>
+    <t>Fire Mode Selector Sound Rework JSRS 1.2.5</t>
+  </si>
+  <si>
+    <t>INERTIA V1.2</t>
+  </si>
+  <si>
+    <t>Lower Weapon Sprint Reworks</t>
+  </si>
+  <si>
+    <t>Basic Anim Rework</t>
+  </si>
+  <si>
+    <t>Death Anim Rewok 2.4 - 3.0</t>
+  </si>
+  <si>
+    <t>FDDA 0.8.8h</t>
+  </si>
+  <si>
+    <t>BG - SCO3 P1 Real Mutant Sounds</t>
+  </si>
+  <si>
+    <t>BG - SC03 P3 New UG Sounds</t>
+  </si>
+  <si>
+    <t>BG - SC03 P2 New Outdoor Sounds MINUS_5db</t>
+  </si>
+  <si>
+    <t>BG - SC03 P2 New Outdoor Sounds</t>
+  </si>
+  <si>
+    <t>Vanilla Models Re_Textures 3.7</t>
+  </si>
+  <si>
+    <t>UNISG Overhaul</t>
+  </si>
+  <si>
+    <t>SEVA Glass Variety</t>
+  </si>
+  <si>
+    <t>(Opt.) Grass Yellow Reeds</t>
+  </si>
+  <si>
+    <t>Particle - 00.CineVFX3.5PD1.1 - Core</t>
+  </si>
+  <si>
+    <t>Particle - 01.CVFX Blood Effects Tweak - Ultraviolent</t>
+  </si>
+  <si>
+    <t>Quests - MotZ Dialogue Unlocker</t>
+  </si>
+  <si>
+    <t>BOTZ CineVFX 3.5.1.1</t>
+  </si>
+  <si>
+    <t>Bullet Impact Decals</t>
+  </si>
+  <si>
+    <t>BodyDotsMiniMap</t>
+  </si>
+  <si>
+    <t>Batt. Warning</t>
+  </si>
+  <si>
+    <t>Asc. Crosshairs</t>
+  </si>
+  <si>
+    <t>Subtle Hit Direction Marker 1.1</t>
+  </si>
+  <si>
+    <t>Instant Tooltip</t>
+  </si>
+  <si>
+    <t>RPGlite Skills Syst. 1.4.2.3</t>
+  </si>
+  <si>
+    <t>Banjaji's Realistic Bodily Needs (everything) 1.5.1 ver 2.3</t>
+  </si>
+  <si>
+    <t>Faction Based Economy 1.4.1</t>
+  </si>
+  <si>
+    <t>DPH Configurable Loot Condition 1.2</t>
+  </si>
+  <si>
+    <t>Artefact Reworks 1.0.4</t>
+  </si>
+  <si>
+    <t>Grok's Stash Overhaul - Main</t>
+  </si>
+  <si>
+    <t>Grok's Stash Overhaul - TB Fix Bugged Stashes Patch</t>
+  </si>
+  <si>
+    <t>Ignore Companion Allegiance</t>
+  </si>
+  <si>
+    <t>Actor Tweaks</t>
+  </si>
+  <si>
+    <t>Actor Tweaks (Banjajis Realistic Bodily Needs)</t>
+  </si>
+  <si>
+    <t>Arszis Mutant Bleeding 2.0.1</t>
+  </si>
+  <si>
+    <t>Remove Mutant AutoAim</t>
+  </si>
+  <si>
+    <t>00 Dynamic_NPC_Armor Visuals</t>
+  </si>
+  <si>
+    <t>01 Dynamic_NPC_Armor Visuals_NPCs Loot Outfits</t>
+  </si>
+  <si>
+    <t>ARX and ABF Anomalous Rework</t>
+  </si>
+  <si>
+    <t>Highlight New Items</t>
+  </si>
+  <si>
+    <t>FDDA Item Counts</t>
+  </si>
+  <si>
+    <t>Bottle Water Adjusted</t>
+  </si>
+  <si>
+    <t>Enable Combine Items of Similar Kind into One</t>
+  </si>
+  <si>
+    <t>Enable Dissamble All Items</t>
+  </si>
+  <si>
+    <t>Keep Crafting Window Open</t>
+  </si>
+  <si>
+    <t>SortingItems</t>
+  </si>
+  <si>
+    <t>Persistent Weather (Yohji) 1.3</t>
+  </si>
+  <si>
+    <t>BasePropagandaReturn</t>
+  </si>
+  <si>
+    <t>Coordinate Based Safe Zone</t>
+  </si>
+  <si>
+    <t>Cozy Campfires</t>
+  </si>
+  <si>
+    <t>Encyclopedia_ui_fixes_v1.2</t>
+  </si>
+  <si>
+    <t>Dialogue Expanded 4.1</t>
+  </si>
+  <si>
+    <t>Disable Goodwill Loss</t>
+  </si>
+  <si>
+    <t>No Grey Radiation PostProcess</t>
+  </si>
+  <si>
+    <t>Nicer Flaslights Addon Tactlight 1.6</t>
+  </si>
+  <si>
+    <t>Outfit Ballistic Upgd. Rework</t>
+  </si>
+  <si>
+    <t>Quest Items Droppable RC18</t>
+  </si>
+  <si>
+    <t>Less NPC Jamming</t>
+  </si>
+  <si>
+    <t>Bounty Squad Rework 1.0.4</t>
+  </si>
+  <si>
+    <t>Decreased AI Hearing Distance (Bushes)</t>
+  </si>
+  <si>
+    <t>Companion Carry Weights Tweak</t>
+  </si>
+  <si>
+    <t>Companion Inventory Unlock 04_01_2022</t>
+  </si>
+  <si>
+    <t>Companions Deactive Headlamp</t>
+  </si>
+  <si>
+    <t>Companions Don't Die</t>
+  </si>
+  <si>
+    <t>Euro UNISG Names v3</t>
+  </si>
+  <si>
+    <t>Merc Codenames LTTZ DC compatible</t>
+  </si>
+  <si>
+    <t>ImprovedPDA 1.5.1</t>
+  </si>
+  <si>
+    <t>Better Companion HP Regen (10x)</t>
+  </si>
+  <si>
+    <t>EFTFootsep 1.1</t>
+  </si>
+  <si>
+    <t>EFTInventorySound</t>
+  </si>
+  <si>
+    <t>EFTJumpLandSFX</t>
+  </si>
+  <si>
+    <t>EFTMedicalItemSounds</t>
+  </si>
+  <si>
+    <t>EFTAimRattle 1.2</t>
+  </si>
+  <si>
+    <t>EFTNOD</t>
+  </si>
+  <si>
+    <t>EFTGrenadeThrowingSound (Modded Game)</t>
+  </si>
+  <si>
+    <t>Weapon Sounds Fixes (JSRS + Blindsides + BaS)</t>
+  </si>
+  <si>
+    <t>Quiter Wood Breaking</t>
+  </si>
+  <si>
+    <t>RF Receiver Sound Readjust 2 (minus 15db)</t>
+  </si>
+  <si>
+    <t>Chimaera Growls</t>
+  </si>
+  <si>
+    <t>Chaotic Blowout Sound 2 (w/o Dogs)</t>
+  </si>
+  <si>
+    <t>Pre Blowout Murder of Crows (Main)</t>
+  </si>
+  <si>
+    <t>Pre Blowout Murder of Crows (Patch - ODBM v2)</t>
+  </si>
+  <si>
+    <t>Bullet Casing Falling Sound 2.0</t>
+  </si>
+  <si>
+    <t>WeaponPartsRework - 2022_01_08</t>
+  </si>
+  <si>
+    <t>Upgraded Weapons Weight Rework - 2021_12_31</t>
+  </si>
+  <si>
+    <t>Unjam Keybind - 2022_01_08</t>
+  </si>
+  <si>
+    <t>Weapon Sway 0.5</t>
+  </si>
+  <si>
+    <t>Suppressor Reworked 50 - Standard Anomaly 1.05.6</t>
+  </si>
+  <si>
+    <t>Fluid Aim v1.2.3</t>
+  </si>
+  <si>
+    <t>Enhanced Recoil Overhaul v5 --------(OPTIONAL)</t>
+  </si>
+  <si>
+    <t>Misc Icons - Outfit Icon Fix</t>
+  </si>
+  <si>
+    <t>NPC 00. LoadOuts Rebalance (Main)</t>
+  </si>
+  <si>
+    <t>NPC 02. LoadOuts Rebalance (Adv. Army)</t>
+  </si>
+  <si>
+    <t>NPC 02. LoadOuts Rebalance (Imp. Army)</t>
+  </si>
+  <si>
+    <t>NPC 04. LoadOuts Rebalance (Adv. Monolith)</t>
   </si>
 </sst>
 </file>
@@ -4107,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0EFE6-F6C5-4D3A-98A5-B7E99D9930C9}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,6 +4463,591 @@
         <v>115</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
